--- a/modelStructure/modelStructure_Diphtheria.xlsx
+++ b/modelStructure/modelStructure_Diphtheria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/diphtheria-model-main/modelStructure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/modelStructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F45EAA-5766-724D-826B-8B6BE77702C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B4233-C231-7445-A95B-1ADCDDC79CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30530,8 +30530,8 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A46" zoomScale="109" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33179,36 +33179,55 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="E130:F130"/>
@@ -33220,55 +33239,36 @@
     <mergeCell ref="E123:F123"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
   </mergeCells>
   <conditionalFormatting sqref="H2 G3:G33 H34 G35:G93 H36 H92:H95 H97:H98 G99:G106 H106:H108">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -33284,7 +33284,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
